--- a/cec2017real-master/code/results_multiARO/results_cec2017_10.xlsx
+++ b/cec2017real-master/code/results_multiARO/results_cec2017_10.xlsx
@@ -603,94 +603,94 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2628697350</v>
+        <v>2818642000</v>
       </c>
       <c r="D2" t="n">
-        <v>11094891800</v>
+        <v>2236739000</v>
       </c>
       <c r="E2" t="n">
-        <v>38298.095</v>
+        <v>44036.09</v>
       </c>
       <c r="F2" t="n">
-        <v>238.18119</v>
+        <v>1029.749</v>
       </c>
       <c r="G2" t="n">
-        <v>70.62659500000001</v>
+        <v>94.03633000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>41.818825</v>
+        <v>50.54399</v>
       </c>
       <c r="I2" t="n">
-        <v>128.28593</v>
+        <v>199.859</v>
       </c>
       <c r="J2" t="n">
-        <v>81.691125</v>
+        <v>108.7141</v>
       </c>
       <c r="K2" t="n">
-        <v>1034.525</v>
+        <v>1804.647</v>
       </c>
       <c r="L2" t="n">
-        <v>2097.937</v>
+        <v>2060.487</v>
       </c>
       <c r="M2" t="n">
-        <v>488.3913</v>
+        <v>1037.207</v>
       </c>
       <c r="N2" t="n">
-        <v>258951370</v>
+        <v>668652100</v>
       </c>
       <c r="O2" t="n">
-        <v>3035623.025</v>
+        <v>15057650</v>
       </c>
       <c r="P2" t="n">
-        <v>15361.6375</v>
+        <v>2023.206</v>
       </c>
       <c r="Q2" t="n">
-        <v>118454.905</v>
+        <v>101581.8</v>
       </c>
       <c r="R2" t="n">
-        <v>278.1845</v>
+        <v>606.6214</v>
       </c>
       <c r="S2" t="n">
-        <v>192.3902</v>
+        <v>408.4753</v>
       </c>
       <c r="T2" t="n">
-        <v>2172572.735</v>
+        <v>96565.98</v>
       </c>
       <c r="U2" t="n">
-        <v>7965540.6955</v>
+        <v>1082736</v>
       </c>
       <c r="V2" t="n">
-        <v>224.608575</v>
+        <v>162.728</v>
       </c>
       <c r="W2" t="n">
-        <v>288.819</v>
+        <v>335.7215</v>
       </c>
       <c r="X2" t="n">
-        <v>481.63885</v>
+        <v>759.692</v>
       </c>
       <c r="Y2" t="n">
-        <v>462.59785</v>
+        <v>546.4165</v>
       </c>
       <c r="Z2" t="n">
-        <v>404.6117</v>
+        <v>409.8075</v>
       </c>
       <c r="AA2" t="n">
-        <v>1676.489</v>
+        <v>2848.823</v>
       </c>
       <c r="AB2" t="n">
-        <v>935.92175</v>
+        <v>1204.312</v>
       </c>
       <c r="AC2" t="n">
-        <v>803.29755</v>
+        <v>1197.464</v>
       </c>
       <c r="AD2" t="n">
-        <v>673.55115</v>
+        <v>671.5036</v>
       </c>
       <c r="AE2" t="n">
-        <v>548.05515</v>
+        <v>718.3339</v>
       </c>
       <c r="AF2" t="n">
-        <v>2238232.15</v>
+        <v>882863.3</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
@@ -704,94 +704,94 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1042288872.5</v>
+        <v>1401622000</v>
       </c>
       <c r="D3" t="n">
-        <v>417889432</v>
+        <v>1262912000</v>
       </c>
       <c r="E3" t="n">
-        <v>32762.32</v>
+        <v>44036.09</v>
       </c>
       <c r="F3" t="n">
-        <v>65.59424</v>
+        <v>443.4675</v>
       </c>
       <c r="G3" t="n">
-        <v>53.045215</v>
+        <v>69.30647999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>39.42888499999999</v>
+        <v>41.48324</v>
       </c>
       <c r="I3" t="n">
-        <v>99.32013000000001</v>
+        <v>143.6901</v>
       </c>
       <c r="J3" t="n">
-        <v>49.86704</v>
+        <v>94.61844000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>724.6872</v>
+        <v>694.7474999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>1465.867</v>
+        <v>1889.739</v>
       </c>
       <c r="M3" t="n">
-        <v>194.69177</v>
+        <v>701.2525000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>42140742.5</v>
+        <v>82927000</v>
       </c>
       <c r="O3" t="n">
-        <v>108321.04</v>
+        <v>322369.6</v>
       </c>
       <c r="P3" t="n">
-        <v>8473.62875</v>
+        <v>2023.206</v>
       </c>
       <c r="Q3" t="n">
-        <v>12956.9975</v>
+        <v>2155.771</v>
       </c>
       <c r="R3" t="n">
-        <v>230.3054</v>
+        <v>250.2297</v>
       </c>
       <c r="S3" t="n">
-        <v>102.455635</v>
+        <v>163.388</v>
       </c>
       <c r="T3" t="n">
-        <v>393279.085</v>
+        <v>96565.98</v>
       </c>
       <c r="U3" t="n">
-        <v>7044.918</v>
+        <v>38997.28</v>
       </c>
       <c r="V3" t="n">
-        <v>88.885385</v>
+        <v>162.728</v>
       </c>
       <c r="W3" t="n">
-        <v>252.5857</v>
+        <v>299.6991</v>
       </c>
       <c r="X3" t="n">
-        <v>300.69725</v>
+        <v>492.2958</v>
       </c>
       <c r="Y3" t="n">
-        <v>377.18545</v>
+        <v>356.991</v>
       </c>
       <c r="Z3" t="n">
-        <v>381.7932</v>
+        <v>404.793</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.2696999999999</v>
+        <v>840.288</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.29175</v>
+        <v>739.5711</v>
       </c>
       <c r="AC3" t="n">
-        <v>414.3101</v>
+        <v>447.1564</v>
       </c>
       <c r="AD3" t="n">
-        <v>552.0922</v>
+        <v>627.9994</v>
       </c>
       <c r="AE3" t="n">
-        <v>390.4266</v>
+        <v>392.1825</v>
       </c>
       <c r="AF3" t="n">
-        <v>1499512.65</v>
+        <v>882863.3</v>
       </c>
       <c r="AG3" t="n">
         <v>10</v>
@@ -805,94 +805,94 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>699652872.5</v>
+        <v>251699200</v>
       </c>
       <c r="D4" t="n">
-        <v>205923232</v>
+        <v>245036800</v>
       </c>
       <c r="E4" t="n">
-        <v>30686.68</v>
+        <v>42015.63</v>
       </c>
       <c r="F4" t="n">
-        <v>65.59424</v>
+        <v>225.0863</v>
       </c>
       <c r="G4" t="n">
-        <v>46.056735</v>
+        <v>59.36508</v>
       </c>
       <c r="H4" t="n">
-        <v>27.76153</v>
+        <v>30.8675</v>
       </c>
       <c r="I4" t="n">
-        <v>84.29893</v>
+        <v>112.5175</v>
       </c>
       <c r="J4" t="n">
-        <v>36.932145</v>
+        <v>90.81502</v>
       </c>
       <c r="K4" t="n">
-        <v>647.9273499999999</v>
+        <v>680.1953999999999</v>
       </c>
       <c r="L4" t="n">
-        <v>1356.6765</v>
+        <v>1597.722</v>
       </c>
       <c r="M4" t="n">
-        <v>127.95207</v>
+        <v>307.0099</v>
       </c>
       <c r="N4" t="n">
-        <v>12178062.5</v>
+        <v>7729468</v>
       </c>
       <c r="O4" t="n">
-        <v>106824.35</v>
+        <v>36012.15</v>
       </c>
       <c r="P4" t="n">
-        <v>4761.34045</v>
+        <v>2023.206</v>
       </c>
       <c r="Q4" t="n">
-        <v>3416.888</v>
+        <v>2155.771</v>
       </c>
       <c r="R4" t="n">
-        <v>217.7625</v>
+        <v>121.7435</v>
       </c>
       <c r="S4" t="n">
-        <v>72.84148500000001</v>
+        <v>121.4066</v>
       </c>
       <c r="T4" t="n">
-        <v>144684.47</v>
+        <v>96565.98</v>
       </c>
       <c r="U4" t="n">
-        <v>5292.261</v>
+        <v>21500.71</v>
       </c>
       <c r="V4" t="n">
-        <v>88.885385</v>
+        <v>139.9023</v>
       </c>
       <c r="W4" t="n">
-        <v>247.7528</v>
+        <v>274.3235</v>
       </c>
       <c r="X4" t="n">
-        <v>226.5436</v>
+        <v>367.4237</v>
       </c>
       <c r="Y4" t="n">
-        <v>355.376</v>
+        <v>333.3812</v>
       </c>
       <c r="Z4" t="n">
-        <v>375.3772</v>
+        <v>404.793</v>
       </c>
       <c r="AA4" t="n">
-        <v>529.4008</v>
+        <v>544.0505000000001</v>
       </c>
       <c r="AB4" t="n">
-        <v>567.9078999999999</v>
+        <v>624.8582</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.3911</v>
+        <v>421.0781</v>
       </c>
       <c r="AD4" t="n">
-        <v>547.3505</v>
+        <v>529.3864</v>
       </c>
       <c r="AE4" t="n">
-        <v>340.4443</v>
+        <v>366.9469</v>
       </c>
       <c r="AF4" t="n">
-        <v>779791.5</v>
+        <v>882863.3</v>
       </c>
       <c r="AG4" t="n">
         <v>10</v>
@@ -906,94 +906,94 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>299250472.5</v>
+        <v>128225700</v>
       </c>
       <c r="D5" t="n">
-        <v>6889898</v>
+        <v>87194610</v>
       </c>
       <c r="E5" t="n">
-        <v>13683.01</v>
+        <v>34179.09</v>
       </c>
       <c r="F5" t="n">
-        <v>57.238806</v>
+        <v>123.6031</v>
       </c>
       <c r="G5" t="n">
-        <v>42.456205</v>
+        <v>55.35054</v>
       </c>
       <c r="H5" t="n">
-        <v>21.46696</v>
+        <v>24.69481</v>
       </c>
       <c r="I5" t="n">
-        <v>63.68913</v>
+        <v>89.85686</v>
       </c>
       <c r="J5" t="n">
-        <v>35.1559</v>
+        <v>69.82173</v>
       </c>
       <c r="K5" t="n">
-        <v>446.8771</v>
+        <v>175.9388</v>
       </c>
       <c r="L5" t="n">
-        <v>1178.8825</v>
+        <v>1119.132</v>
       </c>
       <c r="M5" t="n">
-        <v>73.38175</v>
+        <v>137.2589</v>
       </c>
       <c r="N5" t="n">
-        <v>1956666.2</v>
+        <v>6129600</v>
       </c>
       <c r="O5" t="n">
-        <v>19663.15</v>
+        <v>30634.88</v>
       </c>
       <c r="P5" t="n">
-        <v>1662.07195</v>
+        <v>1380.232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2530.8995</v>
+        <v>2155.771</v>
       </c>
       <c r="R5" t="n">
-        <v>172.8248</v>
+        <v>58.08734</v>
       </c>
       <c r="S5" t="n">
-        <v>57.284565</v>
+        <v>86.64845</v>
       </c>
       <c r="T5" t="n">
-        <v>60503.74950000001</v>
+        <v>96565.98</v>
       </c>
       <c r="U5" t="n">
-        <v>5292.261</v>
+        <v>10398.56</v>
       </c>
       <c r="V5" t="n">
-        <v>64.70585</v>
+        <v>100.1795</v>
       </c>
       <c r="W5" t="n">
-        <v>232.6632</v>
+        <v>269.582</v>
       </c>
       <c r="X5" t="n">
-        <v>149.01405</v>
+        <v>212.3969</v>
       </c>
       <c r="Y5" t="n">
-        <v>341.2551</v>
+        <v>330.3348</v>
       </c>
       <c r="Z5" t="n">
-        <v>367.9628</v>
+        <v>391.1193</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.813</v>
+        <v>492.5629</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.71235</v>
+        <v>558.5063</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.69365</v>
+        <v>408.0718</v>
       </c>
       <c r="AD5" t="n">
-        <v>421.04505</v>
+        <v>413.0086</v>
       </c>
       <c r="AE5" t="n">
-        <v>340.4443</v>
+        <v>353.7322</v>
       </c>
       <c r="AF5" t="n">
-        <v>665488.7</v>
+        <v>880672.6</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
@@ -1007,94 +1007,94 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>12068537.5</v>
+        <v>28692170</v>
       </c>
       <c r="D6" t="n">
-        <v>1635319.5</v>
+        <v>1125035</v>
       </c>
       <c r="E6" t="n">
-        <v>7205.611499999999</v>
+        <v>10872.58</v>
       </c>
       <c r="F6" t="n">
-        <v>47.115816</v>
+        <v>77.39351000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>29.56895</v>
+        <v>41.50717</v>
       </c>
       <c r="H6" t="n">
-        <v>11.119098</v>
+        <v>22.07788</v>
       </c>
       <c r="I6" t="n">
-        <v>58.35746</v>
+        <v>73.34099999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>29.07625</v>
+        <v>53.84026</v>
       </c>
       <c r="K6" t="n">
-        <v>85.038535</v>
+        <v>76.31907</v>
       </c>
       <c r="L6" t="n">
-        <v>1074.8827</v>
+        <v>1077.55</v>
       </c>
       <c r="M6" t="n">
-        <v>64.50463500000001</v>
+        <v>77.2347</v>
       </c>
       <c r="N6" t="n">
-        <v>691675.25</v>
+        <v>5613759</v>
       </c>
       <c r="O6" t="n">
-        <v>12611.57</v>
+        <v>25857.52</v>
       </c>
       <c r="P6" t="n">
-        <v>251.2952</v>
+        <v>1348.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>1834.533</v>
+        <v>2155.771</v>
       </c>
       <c r="R6" t="n">
-        <v>161.24655</v>
+        <v>25.39084</v>
       </c>
       <c r="S6" t="n">
-        <v>52.773555</v>
+        <v>75.02616</v>
       </c>
       <c r="T6" t="n">
-        <v>32100.8665</v>
+        <v>45338.36</v>
       </c>
       <c r="U6" t="n">
-        <v>3493.017</v>
+        <v>9129.088</v>
       </c>
       <c r="V6" t="n">
-        <v>64.70585</v>
+        <v>87.50230000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>223.62795</v>
+        <v>260.2961</v>
       </c>
       <c r="X6" t="n">
-        <v>121.19075</v>
+        <v>139.4705</v>
       </c>
       <c r="Y6" t="n">
-        <v>327.245</v>
+        <v>326.3074</v>
       </c>
       <c r="Z6" t="n">
-        <v>359.80655</v>
+        <v>373.9662</v>
       </c>
       <c r="AA6" t="n">
-        <v>435.1834</v>
+        <v>457.8471</v>
       </c>
       <c r="AB6" t="n">
-        <v>447.99555</v>
+        <v>439.0826</v>
       </c>
       <c r="AC6" t="n">
-        <v>393.37295</v>
+        <v>394.4421</v>
       </c>
       <c r="AD6" t="n">
-        <v>400.87295</v>
+        <v>397.8442</v>
       </c>
       <c r="AE6" t="n">
-        <v>318.44585</v>
+        <v>290.9507</v>
       </c>
       <c r="AF6" t="n">
-        <v>587912.8</v>
+        <v>844466.7</v>
       </c>
       <c r="AG6" t="n">
         <v>10</v>
@@ -1108,94 +1108,94 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>5256355</v>
+        <v>9754265</v>
       </c>
       <c r="D7" t="n">
-        <v>670674.5</v>
+        <v>111458</v>
       </c>
       <c r="E7" t="n">
-        <v>5379.1725</v>
+        <v>4131.636</v>
       </c>
       <c r="F7" t="n">
-        <v>41.455501</v>
+        <v>73.25788</v>
       </c>
       <c r="G7" t="n">
-        <v>23.041515</v>
+        <v>26.86799</v>
       </c>
       <c r="H7" t="n">
-        <v>8.883184999999999</v>
+        <v>9.995723999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>56.140475</v>
+        <v>59.85389</v>
       </c>
       <c r="J7" t="n">
-        <v>21.613235</v>
+        <v>40.40047</v>
       </c>
       <c r="K7" t="n">
-        <v>54.175765</v>
+        <v>38.06592</v>
       </c>
       <c r="L7" t="n">
-        <v>918.2435</v>
+        <v>918.1722</v>
       </c>
       <c r="M7" t="n">
-        <v>47.63955</v>
+        <v>31.85893</v>
       </c>
       <c r="N7" t="n">
-        <v>453115.7</v>
+        <v>5613759</v>
       </c>
       <c r="O7" t="n">
-        <v>8746.9755</v>
+        <v>4806.578</v>
       </c>
       <c r="P7" t="n">
-        <v>115.17625</v>
+        <v>898.6357</v>
       </c>
       <c r="Q7" t="n">
-        <v>1577.13095</v>
+        <v>2146.085</v>
       </c>
       <c r="R7" t="n">
-        <v>132.20745</v>
+        <v>12.77438</v>
       </c>
       <c r="S7" t="n">
-        <v>50.017885</v>
+        <v>61.29718</v>
       </c>
       <c r="T7" t="n">
-        <v>17098.1565</v>
+        <v>20937.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1886.6623</v>
+        <v>7772.897</v>
       </c>
       <c r="V7" t="n">
-        <v>64.70585</v>
+        <v>66.15031999999999</v>
       </c>
       <c r="W7" t="n">
-        <v>220.84895</v>
+        <v>114.0252</v>
       </c>
       <c r="X7" t="n">
-        <v>113.5688</v>
+        <v>114.7652</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.35585</v>
+        <v>318.6324</v>
       </c>
       <c r="Z7" t="n">
-        <v>356.1707</v>
+        <v>363.8205</v>
       </c>
       <c r="AA7" t="n">
-        <v>428.6057</v>
+        <v>448.5213</v>
       </c>
       <c r="AB7" t="n">
-        <v>390.72555</v>
+        <v>371.9935</v>
       </c>
       <c r="AC7" t="n">
-        <v>390.89975</v>
+        <v>393.485</v>
       </c>
       <c r="AD7" t="n">
-        <v>376.64525</v>
+        <v>387.4045</v>
       </c>
       <c r="AE7" t="n">
-        <v>314.5847</v>
+        <v>263.7298</v>
       </c>
       <c r="AF7" t="n">
-        <v>442962.45</v>
+        <v>781261.3</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
@@ -1209,94 +1209,94 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>3995650</v>
+        <v>4724546</v>
       </c>
       <c r="D8" t="n">
-        <v>284218.5</v>
+        <v>19885</v>
       </c>
       <c r="E8" t="n">
-        <v>5113.674</v>
+        <v>1152.591</v>
       </c>
       <c r="F8" t="n">
-        <v>39.443156</v>
+        <v>71.37350000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>20.693105</v>
+        <v>25.54167</v>
       </c>
       <c r="H8" t="n">
-        <v>4.77918</v>
+        <v>7.304711</v>
       </c>
       <c r="I8" t="n">
-        <v>55.552015</v>
+        <v>59.85389</v>
       </c>
       <c r="J8" t="n">
-        <v>19.61575</v>
+        <v>40.40047</v>
       </c>
       <c r="K8" t="n">
-        <v>47.311695</v>
+        <v>3.748531</v>
       </c>
       <c r="L8" t="n">
-        <v>870.2774999999999</v>
+        <v>827.9702</v>
       </c>
       <c r="M8" t="n">
-        <v>39.82397</v>
+        <v>29.01525</v>
       </c>
       <c r="N8" t="n">
-        <v>439341.4</v>
+        <v>5392604</v>
       </c>
       <c r="O8" t="n">
-        <v>8556.4265</v>
+        <v>3038.424</v>
       </c>
       <c r="P8" t="n">
-        <v>115.17625</v>
+        <v>479.4941</v>
       </c>
       <c r="Q8" t="n">
-        <v>1577.13095</v>
+        <v>2146.085</v>
       </c>
       <c r="R8" t="n">
-        <v>131.071</v>
+        <v>12.77438</v>
       </c>
       <c r="S8" t="n">
-        <v>44.362745</v>
+        <v>61.29718</v>
       </c>
       <c r="T8" t="n">
-        <v>16639.8695</v>
+        <v>19496.57</v>
       </c>
       <c r="U8" t="n">
-        <v>1553.48155</v>
+        <v>7772.897</v>
       </c>
       <c r="V8" t="n">
-        <v>62.293835</v>
+        <v>66.15031999999999</v>
       </c>
       <c r="W8" t="n">
-        <v>171.50415</v>
+        <v>105.8877</v>
       </c>
       <c r="X8" t="n">
-        <v>111.92905</v>
+        <v>112.3261</v>
       </c>
       <c r="Y8" t="n">
-        <v>325.35585</v>
+        <v>318.2224</v>
       </c>
       <c r="Z8" t="n">
-        <v>353.0497</v>
+        <v>363.8205</v>
       </c>
       <c r="AA8" t="n">
-        <v>427.6998</v>
+        <v>446.449</v>
       </c>
       <c r="AB8" t="n">
-        <v>379.5722500000001</v>
+        <v>351.2577</v>
       </c>
       <c r="AC8" t="n">
-        <v>390.68275</v>
+        <v>391.4408</v>
       </c>
       <c r="AD8" t="n">
-        <v>374.2368</v>
+        <v>384.4743</v>
       </c>
       <c r="AE8" t="n">
-        <v>301.3521</v>
+        <v>252.8416</v>
       </c>
       <c r="AF8" t="n">
-        <v>397862.775</v>
+        <v>737593.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1310,94 +1310,94 @@
         <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>2835987.5</v>
+        <v>4468053</v>
       </c>
       <c r="D9" t="n">
-        <v>152045.5</v>
+        <v>12456</v>
       </c>
       <c r="E9" t="n">
-        <v>3920.4791</v>
+        <v>221.5443</v>
       </c>
       <c r="F9" t="n">
-        <v>38.721181</v>
+        <v>71.37350000000001</v>
       </c>
       <c r="G9" t="n">
-        <v>18.99246</v>
+        <v>24.53357</v>
       </c>
       <c r="H9" t="n">
-        <v>4.118292</v>
+        <v>4.475449</v>
       </c>
       <c r="I9" t="n">
-        <v>54.32563</v>
+        <v>59.85389</v>
       </c>
       <c r="J9" t="n">
-        <v>19.61575</v>
+        <v>36.91779</v>
       </c>
       <c r="K9" t="n">
-        <v>33.862262</v>
+        <v>2.481272</v>
       </c>
       <c r="L9" t="n">
-        <v>820.7759000000001</v>
+        <v>808.4992</v>
       </c>
       <c r="M9" t="n">
-        <v>39.82397</v>
+        <v>28.38523</v>
       </c>
       <c r="N9" t="n">
-        <v>397535.5</v>
+        <v>5066717</v>
       </c>
       <c r="O9" t="n">
-        <v>6801.9695</v>
+        <v>1942.348</v>
       </c>
       <c r="P9" t="n">
-        <v>115.17625</v>
+        <v>477.4222</v>
       </c>
       <c r="Q9" t="n">
-        <v>1577.13095</v>
+        <v>1706.334</v>
       </c>
       <c r="R9" t="n">
-        <v>89.719155</v>
+        <v>12.77438</v>
       </c>
       <c r="S9" t="n">
-        <v>44.362745</v>
+        <v>56.99154</v>
       </c>
       <c r="T9" t="n">
-        <v>16639.8695</v>
+        <v>19496.57</v>
       </c>
       <c r="U9" t="n">
-        <v>1281.55455</v>
+        <v>7772.897</v>
       </c>
       <c r="V9" t="n">
-        <v>62.293835</v>
+        <v>66.15031999999999</v>
       </c>
       <c r="W9" t="n">
-        <v>168.2727</v>
+        <v>105.0716</v>
       </c>
       <c r="X9" t="n">
-        <v>111.6719</v>
+        <v>112.3261</v>
       </c>
       <c r="Y9" t="n">
-        <v>323.7174</v>
+        <v>317.044</v>
       </c>
       <c r="Z9" t="n">
-        <v>352.6047</v>
+        <v>362.0874</v>
       </c>
       <c r="AA9" t="n">
-        <v>427.60315</v>
+        <v>445.0423</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.7921</v>
+        <v>330.1668</v>
       </c>
       <c r="AC9" t="n">
-        <v>390.36915</v>
+        <v>390.9866</v>
       </c>
       <c r="AD9" t="n">
-        <v>363.0437</v>
+        <v>381.0879</v>
       </c>
       <c r="AE9" t="n">
-        <v>298.8505</v>
+        <v>252.8416</v>
       </c>
       <c r="AF9" t="n">
-        <v>359278.725</v>
+        <v>737593.4</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
@@ -1411,94 +1411,94 @@
         <v>50</v>
       </c>
       <c r="C10" t="n">
-        <v>2305009</v>
+        <v>4468053</v>
       </c>
       <c r="D10" t="n">
-        <v>107709.5</v>
+        <v>9769</v>
       </c>
       <c r="E10" t="n">
-        <v>3478.77305</v>
+        <v>106.5094</v>
       </c>
       <c r="F10" t="n">
-        <v>33.2935985</v>
+        <v>71.36226000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>18.99246</v>
+        <v>21.87531</v>
       </c>
       <c r="H10" t="n">
-        <v>3.715153</v>
+        <v>3.58575</v>
       </c>
       <c r="I10" t="n">
-        <v>46.77983</v>
+        <v>56.65146</v>
       </c>
       <c r="J10" t="n">
-        <v>18.13896</v>
+        <v>34.84304</v>
       </c>
       <c r="K10" t="n">
-        <v>32.8657675</v>
+        <v>2.481272</v>
       </c>
       <c r="L10" t="n">
-        <v>761.7655999999999</v>
+        <v>790.3058</v>
       </c>
       <c r="M10" t="n">
-        <v>30.21665</v>
+        <v>26.4529</v>
       </c>
       <c r="N10" t="n">
-        <v>367551.3</v>
+        <v>5066717</v>
       </c>
       <c r="O10" t="n">
-        <v>4640.541</v>
+        <v>1021.487</v>
       </c>
       <c r="P10" t="n">
-        <v>98.86212499999999</v>
+        <v>477.4222</v>
       </c>
       <c r="Q10" t="n">
-        <v>1577.13095</v>
+        <v>1291.642</v>
       </c>
       <c r="R10" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S10" t="n">
-        <v>41.041595</v>
+        <v>53.12286</v>
       </c>
       <c r="T10" t="n">
-        <v>16293.0365</v>
+        <v>19496.57</v>
       </c>
       <c r="U10" t="n">
-        <v>495.07085</v>
+        <v>7772.897</v>
       </c>
       <c r="V10" t="n">
-        <v>62.293835</v>
+        <v>63.41691</v>
       </c>
       <c r="W10" t="n">
-        <v>168.2727</v>
+        <v>105.0252</v>
       </c>
       <c r="X10" t="n">
-        <v>111.5576</v>
+        <v>111.5399</v>
       </c>
       <c r="Y10" t="n">
-        <v>320.3018</v>
+        <v>317.044</v>
       </c>
       <c r="Z10" t="n">
-        <v>351.7043</v>
+        <v>359.1389</v>
       </c>
       <c r="AA10" t="n">
-        <v>427.3415</v>
+        <v>445.0423</v>
       </c>
       <c r="AB10" t="n">
-        <v>337.27015</v>
+        <v>320.266</v>
       </c>
       <c r="AC10" t="n">
-        <v>390.36915</v>
+        <v>390.047</v>
       </c>
       <c r="AD10" t="n">
-        <v>361.2215</v>
+        <v>379.2841</v>
       </c>
       <c r="AE10" t="n">
-        <v>298.8505</v>
+        <v>252.8416</v>
       </c>
       <c r="AF10" t="n">
-        <v>283739.875</v>
+        <v>737593.4</v>
       </c>
       <c r="AG10" t="n">
         <v>10</v>
@@ -1512,94 +1512,94 @@
         <v>60</v>
       </c>
       <c r="C11" t="n">
-        <v>2305009</v>
+        <v>4468053</v>
       </c>
       <c r="D11" t="n">
-        <v>69207.5</v>
+        <v>8780</v>
       </c>
       <c r="E11" t="n">
-        <v>2179.03975</v>
+        <v>97.70089</v>
       </c>
       <c r="F11" t="n">
-        <v>24.9813435</v>
+        <v>71.28413</v>
       </c>
       <c r="G11" t="n">
-        <v>18.99246</v>
+        <v>20.71557</v>
       </c>
       <c r="H11" t="n">
-        <v>3.715153</v>
+        <v>3.214993</v>
       </c>
       <c r="I11" t="n">
-        <v>43.105025</v>
+        <v>54.27865</v>
       </c>
       <c r="J11" t="n">
-        <v>17.95384</v>
+        <v>34.84304</v>
       </c>
       <c r="K11" t="n">
-        <v>32.8657675</v>
+        <v>2.452624</v>
       </c>
       <c r="L11" t="n">
-        <v>695.61375</v>
+        <v>600.7791999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>29.332315</v>
+        <v>26.4529</v>
       </c>
       <c r="N11" t="n">
-        <v>324077.85</v>
+        <v>5066717</v>
       </c>
       <c r="O11" t="n">
-        <v>4640.541</v>
+        <v>1021.487</v>
       </c>
       <c r="P11" t="n">
-        <v>98.86212499999999</v>
+        <v>141.5796</v>
       </c>
       <c r="Q11" t="n">
-        <v>1550.16245</v>
+        <v>374.0167</v>
       </c>
       <c r="R11" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S11" t="n">
-        <v>41.041595</v>
+        <v>52.60692</v>
       </c>
       <c r="T11" t="n">
-        <v>16293.0365</v>
+        <v>19496.57</v>
       </c>
       <c r="U11" t="n">
-        <v>485.89975</v>
+        <v>7600.064</v>
       </c>
       <c r="V11" t="n">
-        <v>62.293835</v>
+        <v>61.84334</v>
       </c>
       <c r="W11" t="n">
-        <v>164.8957</v>
+        <v>105.0164</v>
       </c>
       <c r="X11" t="n">
-        <v>111.35435</v>
+        <v>111.5399</v>
       </c>
       <c r="Y11" t="n">
-        <v>320.1037</v>
+        <v>316.335</v>
       </c>
       <c r="Z11" t="n">
-        <v>351.7043</v>
+        <v>359.1389</v>
       </c>
       <c r="AA11" t="n">
-        <v>427.07125</v>
+        <v>444.9772</v>
       </c>
       <c r="AB11" t="n">
-        <v>334.293</v>
+        <v>316.4153</v>
       </c>
       <c r="AC11" t="n">
-        <v>390.2071</v>
+        <v>390.047</v>
       </c>
       <c r="AD11" t="n">
-        <v>361.2215</v>
+        <v>377.5772</v>
       </c>
       <c r="AE11" t="n">
-        <v>298.8505</v>
+        <v>252.8416</v>
       </c>
       <c r="AF11" t="n">
-        <v>251611.05</v>
+        <v>737593.4</v>
       </c>
       <c r="AG11" t="n">
         <v>10</v>
@@ -1613,94 +1613,94 @@
         <v>70</v>
       </c>
       <c r="C12" t="n">
-        <v>2305009</v>
+        <v>4468053</v>
       </c>
       <c r="D12" t="n">
-        <v>38593</v>
+        <v>8780</v>
       </c>
       <c r="E12" t="n">
-        <v>2120.22795</v>
+        <v>94.56556999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>14.0399285</v>
+        <v>71.28413</v>
       </c>
       <c r="G12" t="n">
-        <v>18.575485</v>
+        <v>20.40798</v>
       </c>
       <c r="H12" t="n">
-        <v>3.715153</v>
+        <v>2.56604</v>
       </c>
       <c r="I12" t="n">
-        <v>43.105025</v>
+        <v>54.27865</v>
       </c>
       <c r="J12" t="n">
-        <v>17.95384</v>
+        <v>34.37133</v>
       </c>
       <c r="K12" t="n">
-        <v>32.8657675</v>
+        <v>0.8378615</v>
       </c>
       <c r="L12" t="n">
-        <v>695.61375</v>
+        <v>476.6866</v>
       </c>
       <c r="M12" t="n">
-        <v>29.332315</v>
+        <v>26.4529</v>
       </c>
       <c r="N12" t="n">
-        <v>324077.85</v>
+        <v>5066717</v>
       </c>
       <c r="O12" t="n">
-        <v>4640.541</v>
+        <v>715.3597</v>
       </c>
       <c r="P12" t="n">
-        <v>98.86212499999999</v>
+        <v>141.5796</v>
       </c>
       <c r="Q12" t="n">
-        <v>1550.16245</v>
+        <v>374.0167</v>
       </c>
       <c r="R12" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S12" t="n">
-        <v>41.041595</v>
+        <v>49.50325</v>
       </c>
       <c r="T12" t="n">
-        <v>16293.0365</v>
+        <v>19496.57</v>
       </c>
       <c r="U12" t="n">
-        <v>287.3491</v>
+        <v>7511.08</v>
       </c>
       <c r="V12" t="n">
-        <v>62.293835</v>
+        <v>61.84334</v>
       </c>
       <c r="W12" t="n">
-        <v>163.84955</v>
+        <v>104.4183</v>
       </c>
       <c r="X12" t="n">
-        <v>111.0259</v>
+        <v>110.9238</v>
       </c>
       <c r="Y12" t="n">
-        <v>320.1037</v>
+        <v>316.335</v>
       </c>
       <c r="Z12" t="n">
-        <v>351.7043</v>
+        <v>357.3122</v>
       </c>
       <c r="AA12" t="n">
-        <v>426.821</v>
+        <v>444.8786</v>
       </c>
       <c r="AB12" t="n">
-        <v>330.1852</v>
+        <v>310.721</v>
       </c>
       <c r="AC12" t="n">
-        <v>390.2071</v>
+        <v>389.7882</v>
       </c>
       <c r="AD12" t="n">
-        <v>360.78425</v>
+        <v>376.872</v>
       </c>
       <c r="AE12" t="n">
-        <v>297.48815</v>
+        <v>252.8416</v>
       </c>
       <c r="AF12" t="n">
-        <v>155673.15</v>
+        <v>698563.9</v>
       </c>
       <c r="AG12" t="n">
         <v>10</v>
@@ -1714,94 +1714,94 @@
         <v>80</v>
       </c>
       <c r="C13" t="n">
-        <v>2088898.5</v>
+        <v>4189157</v>
       </c>
       <c r="D13" t="n">
-        <v>27099.5</v>
+        <v>7379</v>
       </c>
       <c r="E13" t="n">
-        <v>1217.88865</v>
+        <v>61.49053</v>
       </c>
       <c r="F13" t="n">
-        <v>6.514898</v>
+        <v>71.28413</v>
       </c>
       <c r="G13" t="n">
-        <v>18.575485</v>
+        <v>20.38507</v>
       </c>
       <c r="H13" t="n">
-        <v>3.715153</v>
+        <v>1.933828</v>
       </c>
       <c r="I13" t="n">
-        <v>43.105025</v>
+        <v>54.27865</v>
       </c>
       <c r="J13" t="n">
-        <v>17.95384</v>
+        <v>33.62093</v>
       </c>
       <c r="K13" t="n">
-        <v>32.8657675</v>
+        <v>0.8378615</v>
       </c>
       <c r="L13" t="n">
-        <v>662.8154999999999</v>
+        <v>476.6866</v>
       </c>
       <c r="M13" t="n">
-        <v>29.332315</v>
+        <v>25.57902</v>
       </c>
       <c r="N13" t="n">
-        <v>298014.7</v>
+        <v>5066717</v>
       </c>
       <c r="O13" t="n">
-        <v>4082.6105</v>
+        <v>715.3597</v>
       </c>
       <c r="P13" t="n">
-        <v>98.86212499999999</v>
+        <v>78.18243</v>
       </c>
       <c r="Q13" t="n">
-        <v>1420.1177</v>
+        <v>305.9144</v>
       </c>
       <c r="R13" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S13" t="n">
-        <v>41.041595</v>
+        <v>49.50325</v>
       </c>
       <c r="T13" t="n">
-        <v>15248.2815</v>
+        <v>19496.57</v>
       </c>
       <c r="U13" t="n">
-        <v>277.70455</v>
+        <v>7511.08</v>
       </c>
       <c r="V13" t="n">
-        <v>62.293835</v>
+        <v>61.38677</v>
       </c>
       <c r="W13" t="n">
-        <v>163.84955</v>
+        <v>104.4183</v>
       </c>
       <c r="X13" t="n">
-        <v>111.0259</v>
+        <v>110.9238</v>
       </c>
       <c r="Y13" t="n">
-        <v>320.0182</v>
+        <v>315.9278</v>
       </c>
       <c r="Z13" t="n">
-        <v>351.3968</v>
+        <v>357.3122</v>
       </c>
       <c r="AA13" t="n">
-        <v>426.821</v>
+        <v>444.7909</v>
       </c>
       <c r="AB13" t="n">
-        <v>325.31125</v>
+        <v>310.721</v>
       </c>
       <c r="AC13" t="n">
-        <v>390.2071</v>
+        <v>389.7882</v>
       </c>
       <c r="AD13" t="n">
-        <v>360.78425</v>
+        <v>375.9974</v>
       </c>
       <c r="AE13" t="n">
-        <v>297.48815</v>
+        <v>252.8416</v>
       </c>
       <c r="AF13" t="n">
-        <v>120329.8</v>
+        <v>575016.5</v>
       </c>
       <c r="AG13" t="n">
         <v>10</v>
@@ -1815,94 +1815,94 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>2088898.5</v>
+        <v>4189157</v>
       </c>
       <c r="D14" t="n">
-        <v>27099.5</v>
+        <v>7379</v>
       </c>
       <c r="E14" t="n">
-        <v>1168.5942</v>
+        <v>35.98491</v>
       </c>
       <c r="F14" t="n">
-        <v>6.514898</v>
+        <v>71.28413</v>
       </c>
       <c r="G14" t="n">
-        <v>18.575485</v>
+        <v>20.38507</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1371065</v>
+        <v>1.933828</v>
       </c>
       <c r="I14" t="n">
-        <v>43.105025</v>
+        <v>38.22749</v>
       </c>
       <c r="J14" t="n">
-        <v>17.95384</v>
+        <v>33.62093</v>
       </c>
       <c r="K14" t="n">
-        <v>6.4655575</v>
+        <v>0.8378615</v>
       </c>
       <c r="L14" t="n">
-        <v>662.8154999999999</v>
+        <v>476.6866</v>
       </c>
       <c r="M14" t="n">
-        <v>20.459205</v>
+        <v>23.40544</v>
       </c>
       <c r="N14" t="n">
-        <v>298014.7</v>
+        <v>5066717</v>
       </c>
       <c r="O14" t="n">
-        <v>4082.6105</v>
+        <v>715.3597</v>
       </c>
       <c r="P14" t="n">
-        <v>98.86212499999999</v>
+        <v>78.18243</v>
       </c>
       <c r="Q14" t="n">
-        <v>1374.4722</v>
+        <v>305.9144</v>
       </c>
       <c r="R14" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S14" t="n">
-        <v>41.041595</v>
+        <v>48.56008</v>
       </c>
       <c r="T14" t="n">
-        <v>15248.2815</v>
+        <v>19496.57</v>
       </c>
       <c r="U14" t="n">
-        <v>277.70455</v>
+        <v>7421.738</v>
       </c>
       <c r="V14" t="n">
-        <v>62.293835</v>
+        <v>61.38677</v>
       </c>
       <c r="W14" t="n">
-        <v>163.84955</v>
+        <v>103.7957</v>
       </c>
       <c r="X14" t="n">
-        <v>111.0259</v>
+        <v>107.9767</v>
       </c>
       <c r="Y14" t="n">
-        <v>319.7232</v>
+        <v>315.4458</v>
       </c>
       <c r="Z14" t="n">
-        <v>351.3968</v>
+        <v>357.3122</v>
       </c>
       <c r="AA14" t="n">
-        <v>425.3674</v>
+        <v>444.7909</v>
       </c>
       <c r="AB14" t="n">
-        <v>317.58045</v>
+        <v>310.721</v>
       </c>
       <c r="AC14" t="n">
-        <v>390.2071</v>
+        <v>389.3809</v>
       </c>
       <c r="AD14" t="n">
-        <v>360.78425</v>
+        <v>375.9974</v>
       </c>
       <c r="AE14" t="n">
-        <v>294.4087</v>
+        <v>250.8885</v>
       </c>
       <c r="AF14" t="n">
-        <v>120329.8</v>
+        <v>575016.5</v>
       </c>
       <c r="AG14" t="n">
         <v>10</v>
@@ -1916,94 +1916,94 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>2088898.5</v>
+        <v>4189157</v>
       </c>
       <c r="D15" t="n">
-        <v>27099.5</v>
+        <v>7379</v>
       </c>
       <c r="E15" t="n">
-        <v>1149.245695</v>
+        <v>35.98491</v>
       </c>
       <c r="F15" t="n">
-        <v>6.514898</v>
+        <v>71.28413</v>
       </c>
       <c r="G15" t="n">
-        <v>18.575485</v>
+        <v>20.38507</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1371065</v>
+        <v>1.933828</v>
       </c>
       <c r="I15" t="n">
-        <v>43.105025</v>
+        <v>38.22749</v>
       </c>
       <c r="J15" t="n">
-        <v>17.95384</v>
+        <v>33.62093</v>
       </c>
       <c r="K15" t="n">
-        <v>6.4655575</v>
+        <v>0.8378615</v>
       </c>
       <c r="L15" t="n">
-        <v>662.8154999999999</v>
+        <v>476.6866</v>
       </c>
       <c r="M15" t="n">
-        <v>16.937665</v>
+        <v>23.40544</v>
       </c>
       <c r="N15" t="n">
-        <v>298014.7</v>
+        <v>5066717</v>
       </c>
       <c r="O15" t="n">
-        <v>3180.1145</v>
+        <v>715.3597</v>
       </c>
       <c r="P15" t="n">
-        <v>98.86212499999999</v>
+        <v>78.18243</v>
       </c>
       <c r="Q15" t="n">
-        <v>653.1215</v>
+        <v>305.9144</v>
       </c>
       <c r="R15" t="n">
-        <v>87.42014500000001</v>
+        <v>12.77438</v>
       </c>
       <c r="S15" t="n">
-        <v>41.041595</v>
+        <v>48.56008</v>
       </c>
       <c r="T15" t="n">
-        <v>15248.2815</v>
+        <v>19496.57</v>
       </c>
       <c r="U15" t="n">
-        <v>275.0304</v>
+        <v>1219.164</v>
       </c>
       <c r="V15" t="n">
-        <v>62.16781</v>
+        <v>61.38677</v>
       </c>
       <c r="W15" t="n">
-        <v>163.84955</v>
+        <v>103.6331</v>
       </c>
       <c r="X15" t="n">
-        <v>111.0259</v>
+        <v>107.9767</v>
       </c>
       <c r="Y15" t="n">
-        <v>319.7232</v>
+        <v>315.4458</v>
       </c>
       <c r="Z15" t="n">
-        <v>351.3968</v>
+        <v>357.3122</v>
       </c>
       <c r="AA15" t="n">
-        <v>425.3674</v>
+        <v>444.6973</v>
       </c>
       <c r="AB15" t="n">
-        <v>317.58045</v>
+        <v>310.721</v>
       </c>
       <c r="AC15" t="n">
-        <v>390.2071</v>
+        <v>389.3809</v>
       </c>
       <c r="AD15" t="n">
-        <v>360.78425</v>
+        <v>375.9974</v>
       </c>
       <c r="AE15" t="n">
-        <v>294.4087</v>
+        <v>250.8885</v>
       </c>
       <c r="AF15" t="n">
-        <v>120329.8</v>
+        <v>575016.5</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
